--- a/data/excel_templates/chembot_topics_list.xlsx
+++ b/data/excel_templates/chembot_topics_list.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\chemistry_bot\data\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA7C56-FFC8-4756-BFFE-B18A8A4064F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CAF7C9-39C6-46AF-A95D-0C532890E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
+    <workbookView xWindow="9600" yWindow="690" windowWidth="28800" windowHeight="15345" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="1" r:id="rId1"/>
-    <sheet name="Основной лист" sheetId="2" r:id="rId2"/>
+    <sheet name="MAIN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Название темы</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>ege_18</t>
+  </si>
+  <si>
+    <t>Это лист-пример, который показывает, как нужно заполнять таблицу. Реальные данные вносятся в лист MAIN</t>
+  </si>
+  <si>
+    <t>Одна строка - 1 тег</t>
   </si>
 </sst>
 </file>
@@ -112,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -145,6 +157,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8652690-1D82-4F57-B99D-56121C94EDA2}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +583,43 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A15:B16"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -577,7 +631,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel_templates/chembot_topics_list.xlsx
+++ b/data/excel_templates/chembot_topics_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\chemistry_bot\data\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CAF7C9-39C6-46AF-A95D-0C532890E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C2617-1B3F-4435-B3AC-35E536103AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="690" windowWidth="28800" windowHeight="15345" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
+    <workbookView xWindow="6600" yWindow="4620" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="1" r:id="rId1"/>
     <sheet name="MAIN" sheetId="2" r:id="rId2"/>
+    <sheet name="lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Название темы</t>
   </si>
@@ -79,13 +80,31 @@
   </si>
   <si>
     <t>Одна строка - 1 тег</t>
+  </si>
+  <si>
+    <t>Раздел</t>
+  </si>
+  <si>
+    <t>ОГЭ</t>
+  </si>
+  <si>
+    <t>Органическая химия</t>
+  </si>
+  <si>
+    <t>Неорганическая химия</t>
+  </si>
+  <si>
+    <t>Общая химия</t>
+  </si>
+  <si>
+    <t>Доступные разделы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +136,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,11 +174,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,11 +206,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8652690-1D82-4F57-B99D-56121C94EDA2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -584,36 +643,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -628,23 +687,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644C376-3B8F-4ACB-8D6C-87D665AA362D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="49.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Неверный формат ввода" error="Выберите значение из списка" promptTitle="Раздел темы" prompt="Выберите значение из списка" xr:uid="{B17A06D5-8CBD-4FA2-98ED-67E501FDDAEB}">
+          <x14:formula1>
+            <xm:f>lists!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1091</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBC0D03-8C29-4A41-BEA5-673205152295}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_templates/chembot_topics_list.xlsx
+++ b/data/excel_templates/chembot_topics_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\chemistry_bot\data\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C2617-1B3F-4435-B3AC-35E536103AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B9537-FA1B-41B0-A82C-C19F220D1824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4620" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{29C50957-873F-4CDA-8720-6D38BEBDE3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Название темы</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Доступные разделы</t>
+  </si>
+  <si>
+    <t>ЕГЭ</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644C376-3B8F-4ACB-8D6C-87D665AA362D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -743,8 +746,16 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
